--- a/story/主线剧情/main/level_main_08-13_end.xlsx
+++ b/story/主线剧情/main/level_main_08-13_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="729">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="塔露拉"]  呃......给我......滚开！
 </t>
   </si>
@@ -1467,6 +1473,1458 @@
   </si>
   <si>
     <t xml:space="preserve">……お前は何を企んでいる？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Ugh... Get the... hell away!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Such potential!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  *Hiss*...! I should take my hat off to you! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Alas, I forgot to bring my cap with me today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Haah... haah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  It's pointless to keep fighting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  We are merely protectors of Ursus. You may take you men with you. Live on as the protector of these Infected if that is your wish. Let us take what we must to realize our respective goals. I find that reasonable.   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You call yourself a protector... but who did you ever protect...?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  All nations have men who call themselves protectors. There are many things that need to be protected, and also far too many men who call themselves protectors. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Most of them are corrupt and incompetent, yet the rest of us excel precisely because of the things we protect.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  We are protecting Ursus's future.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You think that will cover up everything you've done?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You've committed more crimes than anyone can ever count. You drove Simonch City into the lakes, and not a single person got out of that Elafia village—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I can name all the atrocities you've committed one by one and let the whole world know all that you've done!! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And you dare to brag to me about your country's will...? Your foolishness will one day be crushed by reality! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  All societies will at some point have to bring out their lashes and whip their laziest and most simpleminded members. That being said, we are blades, not whips. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  If cutting off branches that do nothing but suck the tree dry of nutrients was a crime, then yes, that makes us evil.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  You said you will "expose" our "atrocities". That merely tells me you are unable to confront us, not to mention how likely the way you see things will change.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  If I walk towards you, I suppose you will take a step back?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Talulah...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Stay back! Protect the soldiers! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Ursus's beneficence is of equal weight to its devilries. When you stand up against our evil deeds, you must also face all the good that we have done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  All of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  A nation cannot be measured by good or evil. Nothing is worthy of discussion on this metric. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  ...Perhaps it's not realistic to expect you to reach his heights and fully grasp his wisdom so soon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  But if everything is as he said, then perhaps we will come for your advice when that day comes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Right now, aside the potential and the seeds hidden in you, you have nothing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  The empire isn't something you can understand, Vouivre.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Wait. Vouivre... No... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  You... It can't be...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  36... 【Code word】!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  —Wendigo—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Two Royal Guards by their lonesome aren't enough to kill me. If you want to make an enemy of me, you’d better bring a third man with you next time. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Captain! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Shields forward! Push! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  No. Patriot. No.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  There are five Royal Guards here, counting the ones still trying to put up a fight with my daughter over on the other side.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  The Royal Guards I knew would never waver or pussyfoot around! Tell me! How confident are you in your strength?!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  We don't want to be your enemy!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Wendigo... You are a legend known to a few of us in the Empire's army.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Even if the common folk of the nomadic cities have long forgotten, all of us still remember the tales our forebears told us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  You have my respect, Wendigo!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Ah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  ...So you follow her. Lying has become second nature to the soldiers of the tundras, it's hard to know what to believe. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  So it's the truth, then. You are Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  It shouldn't come as a surprise that I am fighting for the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  That's not right, Wendigo. This plan will fail. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  There are lots of Infected in the country.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Fantasies do not come true just because more people believe in them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Before you write this off as a fantasy, how many of Ursus's defeats and victories have you personally participated in?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  You're right. My generation hasn't seen much action. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Therefore... I am inviting you to join us. Ursus Captain Buldrokkas'tee, I ask you to come with us. Ursus needs you.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  What's that?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...What...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Having fought under the command of the last emperor for over a hundred years, surely you must remember Ursus's greatness in those times.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Was it a prosperous and marvelous era?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Everyone united under the banner of Ursus regardless of race, and they all fought for its future. Enemies far and wide fell to our blades and cannon fire, and we stood undefeated in the battlefield.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  I am far from the only one who wishes to return to those glorious times... All of us want to see again an era when all men are brothers and share the same deep hatred for their enemies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  We can bring all those greedy countries to part with the lands they stole, and give the downtrodden the chance to regain their dignity under the glory of Ursus. We conquer not to annihilate, but to rebuild.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  We gave this world a new lease of life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Let us rebuild that era. With all people united, facing all the storms that come our way together. I do believe it's far better than living your days on the tundra, toiling away. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Try saying that to the Ursus folk who toil so oppressed they can't lift up their heads!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  No one has it easy. Such is the cruelty of the times we live in. Life is difficult for Ursus citizens as well.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  The lack of order, the loss of power, and the destruction of morals. These are all mistakes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  These are the mistakes that ruined Ursus, and we know where the problem lies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  We can fix these problems.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  ...Nonsense!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  You may ask your leader and see if he believes us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  You...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Buldrokkas'tee, we can set Ursus on the right path.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You’ve got one thing wrong. I am not the leader. Not anymore. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  She is the leader. Ask her if she believes any of that. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I fought with your fathers. Your strength and tactical acumen are no less impressive than theirs. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  But you look at the Ursus of those times with rose-colored glasses. What you see is nothing more than your wild fantasies. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  You cannot deny the glory of that era. Everything you did tied you back to Ursus. Even your title symbolizes your desires and aspirations. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Let me ask you this, then. Is there a place for the Infected in that Ursus you are trying to forge for this emperor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Those positions bestowed upon you as favors are just fickle illusions, nothing more, just like those fantasies of yours!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Talulah... *Hiss*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  ...You are right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Perhaps things will be different with the help of you and your men.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  What are... you talking about?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Blades do not make promises. Weapons do not ever make promises. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  But I believe the Infected are a force that Ursus should've possessed in the first place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  All of you should strive to become a symbol of Ursus's glory. The Infected who oppose Ursus shall perish. As for all of you, if you are willing to take up arms for Ursus, it will be recognized as a glorious and noble deed.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talulah can hear the men whispering around her; the murmurs have never been louder.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Just because I don't oppose your theories doesn't mean that I agree with them. Such simplicity is a kind of arrogance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Perhaps you've come to enjoy having this kind of authority? The kind of freewheeling authority that tells you everything you do is to build a better future? What gives you the right to brag about glory?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  In that case, if you are fighting for the minority, on what basis are you saying you deserve the majority's endorsement? What is so righteous about your fight for the Infected?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Surely you will be able to give me an intelligent answer, Wendigo.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  —What does justice even have to do with how many people you got?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Royal Guard, I will ask you just one question. How many people actually loved the Emperor in those days? Was that number high, or low? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Hfff...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  And did the Emperor's death have anything to do with you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  If I answered, "It had nothing to do with us..."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  ...Hfff...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  It looks like we won't be coming to an understanding.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  In any case, my liege has passed. Ursus now belongs to someone else, and what I follow now is merely an ideology. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  —Her ideology.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patriot helps Talulah up as though she, too, is his family, both right at this moment and for the years to come, until the day when he loses her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  *Hiss*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Why her?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Because we know each other well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Perhaps the road you described is indeed a yellow brick road, but I'm afraid I've already made my decision. I chose the Infected. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  A soldier serves his country and his beliefs, not its tyranny. That is why I will destroy this empire and ignite a war of righteousness. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  We, too, need the support of the Infected, and we are also fighting for a just cause.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Why do you refuse us, then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Is it because you believe the path the "Reunion" is taking you is better than the unity and reform we seek? Because it's more efficient? Or is it perhaps because it hurts the Ursus common folk less?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  No, it's simply because the war has already begun, and I need to see it through to the end. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Even the Emperor I served, as benevolent and kind as he was, never accepted the Infected, and these promises are now nothing but lies to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  If you could truly unite the Infected, then we wouldn't have a war.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  It is our hope the Infected will unite under your lead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  If you actually wanted to unite them, you wouldn't need me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Enough, Royal Guards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I've already walked the path you are singing praises of, and that's why I don't believe there are any "better choices" out there. If you tell me you had that kind of foresight, it just tells me you haven't yet faced the irony of fate. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  One day you will understand. Just like the twenty Royal Guards who died in the Valley of the Setting Sun. They were killed in the tundras and at the hands of foes of other races. It's much better than dying at the hands of your countrymen. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Royal Guards, I am a traitor. I betrayed the Empire. There is no room for us to reconcile. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  A declaration is nothing more than that, a declaration.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Even if that is what you believe, Wendigo, what about the people standing behind you? Will they trust her as much as you do? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Even if they revere your might and your honesty, how will you assure them they are not just worshipping a powerful idol?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Is an evil idol able to shelter them better, or is an idol who lets herself be trampled upon more preferable?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I hope you aren't trying to use the former as a metaphor for someone whom I respect.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Reality is far colder than the flurries of the Northwestern Tundra, Wendigo. Once you lose power... you'll find yourself at the mercy of those who are capable. And the first ones to make that move might not be your enemies.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Perhaps they know not who Kashchey is, but they know what a duke is, and they know the duke's daughter will one day become the duchess.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  The people around you are not like how you see them. Her strength will one day come to rival yours, she will be no less resourceful, and her cunning will be on another level. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I take it you are complimenting her?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  No, Wendigo, no... You haven't been an Ursus citizen long enough. You don't understand. I am talking about Kashchey.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Just because one inherits the knowledge of corruption doesn't mean they too will fall to it. The footmarks she left on the tundras is proof that she won't meet the same fate as the old snake. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  *Hiss*... *Huff*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  ...I've heard stories that you dote on young people, or perhaps pamper is the better term.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I will always have respect for those that are truly worth respecting, now and always, from the moment they were born and through the years, even after their deaths.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Leave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Buldrokkas'tee...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Leave. Right now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I won't hold it against you for attacking our soldiers for the time being, or I could kill you two right now, wait for the Royal Guards to come and collect your bodies, and go to war with them until only one side remains—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  —Even if we find ourselves on the losing side.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  ...Ah. Wendigo... I'm afraid I cannot spill any more secrets. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Our warning isn't merely a rhetorical tool, Buldrokkas'tee.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  We can only mourn for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  When we find ourselves fighting against each other on the battlefield, I should find myself mourning for you instead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  That day won't come, Wendigo. That day won't come. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Farewell, "Patriot". This day has been unfruitful. How regretful. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  I should add, Talulah... We look forward to seeing your improvement on the battlefield.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  You should lead them. You are more than up to the task. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Daddy...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Yelena!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Hah, haah... We... we fought them off... together with the Yetis... Haah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  We fought off one of them...! But did they... retreat on purpose? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Was there... five of them altogether? I couldn't... protect my team by myself... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You did fine. You will do better next time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  I will! Definitely...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  ...What happened here? Why is everyone...? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Talulah? What happened to... the Shieldguards? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  ...Captain... what they said just now...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  They traced some imaginary tracks in history. From that, they determined that the future will be the same as the past, that their statuses decide what the future will hold. That is itself a kind of arrogance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I can vouch for her, but I am sure not everyone can come to accept this just yet, so I ask you to keep this under wraps for the time being.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  We know! We all understand! We all know what kind of a person Talulah is.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  But... were they telling the truth?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Don't tell me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  ...What are you thinking? You already said it yourself! A person's upbringing can't determine how you see—  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It's true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Talulah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I was raised by the nobles to one day take over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  There's your answer. Anything else? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  My leader.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Please, Patriot, I told you not to call me that. Let's pack it up here... Faust and the crossbowmen still have training after this. You're joining them, aren't you? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  As long as you do not disappoint with your character, I will support you until the very end.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Yeah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Talulah... My dad supports you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I won't tell you to do the same for me, Yelena.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  *Sigh*. You don't really think— 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Give me a piece of candy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Here. I never thought you'd ask me for one of these. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Hm, let's get going. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Let's pack it up, everyone. If you want to know more, I'll tell you everything... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Soldiers...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talulah…
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is it that you are planning?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  크윽…… 꺼져…… 버려!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  엄청난 잠재력이구나!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  스으으으……! 모자를 벗어 경의를 표해야 할 지경이야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그런데 아쉽게도…… 군모를 쓰는 걸 깜빡해서 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  하악, 하악……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  더는 버텨봤자 소용없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  우리는 우르수스의 근위병에 불과하다. 네 부대는 이대로 유지해도 좋다, 감염자를 지키는 자로서 계속 살아가거라. 상호이익을 취하는 게 합리적이겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  근위병? ……누구를 지킨다고 근위병이라는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  나라마다 근위병이라 자칭하는 사람들이 있지. 지켜야 할 것들이 많으니, 근위병이라 자칭하는 사람들도 많을 수밖에.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그들 대부분은 부패하고 무능하지만 우리는 우리가 지키는 것으로 인해 더 뛰어나게 되었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  우리가 지키고 있는 것은 바로 우르수스의 미래다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그런 핑계로 네놈들의 악행을 덮을 수 있을 것 같아?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  너희들이 저지른 악행은 열거하기 힘들 정도로 많아, 사이몬크 시를 호수 속에 가라앉게 만들고, 엘라피아 마을 사람들을 아무도 빠져나오지 못하게 만들었지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  난 너희들이 저지른 모든 죄를 세상에 낱낱이 밝힐 수 있다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그런 주제에 나라의 의지를 들먹거려? 너희의 어리석음은 앞으로 현실에 부딪혀 산산이 조각날 거다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  결국, 모든 나라는 가장 게으르고 가장 멍청한 이들을 채찍으로 때리기 마련이다. 그래도 우리는 채찍이 아니라 칼날을 사용하지만.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  나무에서 영양소만 빨아먹을 뿐 아무런 쓸모도 없는 가지를 잘라내는 게 악행이라면, 우리는 악행을 저지른 게 맞다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  우리의 '죄업'을 '폭로'하겠다고? 하지만 너는 우리를 제대로 마주하지 못할 거다, 게다가 계속해서 생각을 바꾸게 되겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  우리가 다가가면 넌 물러설 텐가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  탈룰라……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  가까이 오지 마! 전사들을 지켜!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  우르수스는 선행과 악행을 모두 일궈왔다. 우리의 악행을 마주하는 순간, 우리의 선행이 일군 결과도 마주해야 할 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  우리의 모든 것을 말이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  어떤 나라도 선악만으로 평가할 수 없다. 그 점에 관해서는 언급할 가치도 없지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  ……지금의 너에게 그의 지혜를 이해하고, 그의 안목을 갖추라는 건 말도 안 되는 일이겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그가 말한대로 이루어진다면 네 제안을 따르마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  하지만 지금의 네겐 잠재력과 재능 외엔 아무것도 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  제국은 네가 이해할 수 없는 것이다, 와이번.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  잠깐. 와이번…… 아니……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  하필이면 지금……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  36…… 【암호】!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  ……웬디고……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  근위병 두 명으로 날 죽이려 한 거냐. 우리와 적이 되려 했다면, 적어도 셋은 데려왔어야지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  대위님!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  방패를 밀어라! 전진!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  패트리어트… 잠깐, 우리는……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  이 자리에 있는 근위병, 다른 곳에서 내 딸과 싸우고 있는 근위병까지 합치면 모두 다섯이로군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  근위병은 동요하지 않는다고 알고 있다. 대답해라! 네놈들은 자신의 실력에 대해 얼마나 자신 있느냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  우리는 당신과 적이 되고 싶지 않습니다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  웬디고…… 제국군에서 평범한 사람들에게는 알려지지 않은 전설적인 존재……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  이동도시의 시민은 당신을 잊었을지 몰라도, 우리는 지난 세대 사람들이 하던 이야기를 기억하고 있습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  당신에게 경의를 표합니다, 웬디고여!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  허……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  ……그녀의 편에 섰다니, 설원의 병사들은 거짓말을 밥 먹듯 하는군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  감염자가 되었다는 이야기는 사실이었군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  내가 감염자를 위해 싸우는 것 역시 당연한 일이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  틀렸습니다, 웬디고. 그 계획은 실패할 게 뻔합니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  이 나라에는 수많은 감염자가 있다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  믿는 사람들이 많다고 해서 환상이 진실이 될 순 없습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그것을 환상이라고 부르기 전에, 우르수스의 실패와 승리를 얼마나 경험해봤지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  예, 제 세대가 보고 겪은 것은 확실히 많지 않죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그래서…… 저희와 함께해 주기를 요청드리는 겁니다. 우르수스의 대위 불드록카스티, 저희와 함께하시죠. 우르수스에는 당신이 필요합니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  그게 무슨 소리냐?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……무슨……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  선황의 휘하에서 백 년 이상을 싸워온 당신이라면, 당시 우르수스의 강함을 분명 기억 하실 테죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그 얼마나 번영하고 위대한 시대였습니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  종족의 구분 없이 우르수스라는 이름 아래 그 미래를 위해 우리는 함께 싸웠죠. 수많은 적을 우리의 칼날과 포화 속에서 쓰러뜨리며 우리는 승승장구했습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  모두들 그 시대로 돌아가기를 갈망하고 있습니다…… 모두 하나가 되어 공공의 적에게 맞섰던 그 시절을 모두 그리워하고 있죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  탐욕스러운 제국으로부터 그들이 약탈했던 땅을 되찾고, 우르수스의 빛 아래 유린당했던 사람들에게 존엄을 되찾아 줄 겁니다. 저희는 소멸이 아닌 재건을 위해 세상을 정복하는 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  저희가 이 땅에 새로운 생명을 부여할 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  과거의 영광을 저희가 재연할 겁니다. 모두 하나가 되어 미래의 혼란에 맞설 겁니다. 설원에서 쓸쓸히 목숨을 부지하는 것보단 나을 테니까요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  그 말은 고개도 들지 못할 만큼 핍박받는 우르수스 사람들에게나 하시지!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  모두 힘겨운 시간을 보내고 있다. 어려운 시대 속에서 우르수스의 시민들 역시 예외는 아니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  질서의 부재, 힘의 불균형, 훼손된 가치관 모두 잘못되었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  이러한 잘못이 지금의 우르수스를 무너뜨렸다. 문제의 원인을 우린 잘 알고 있다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그래서 제대로 바로잡을 수도 있는 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……헛소리!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  못 믿겠거든 너희 지휘관에게 물어봐도 좋다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  이 자식……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  불드록카스티, 저흰 우르수스를 올바른 길로 이끌 수 있습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  틀렸다. 지금의 지휘관은 내가 아니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  리더는 탈룰라다. 그러니 너희들을 믿는지는 그녀에게 묻도록 해라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  난 너희들의 아버지 세대와 싸웠다. 너희들은 힘이 넘치고, 전술도 그들에게 뒤지지 않지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  하지만 너흰 그때의 우르수스에 대한 환상으로 가득 차 있어. 그것 역시 너희의 환상에 지나지 않는다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  다른 사람도 아닌 당신은 그 시대를 부정할 수 없습니다. 당신의 모든 게 우르수스와 연결되어 있으니까요. 당신을 부르는 이름에도 당신의 의지가 담겨 있지 않습니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그렇다면, 지금의 황제가 생각한 우르수스에 감염자의 자리는 존재하는가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그런 '하사' 받은 자리 따윈, 너희의 환상처럼 찰나에 불과하다!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  탈룰라…… 스으으으……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  ……네 말이 맞다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  너희들이 도와준다면, 사정이 달라질 수도 있겠군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그게…… 무슨 말이지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  칼날은 절대 약속 따위를 하지 않지. 무기는 약속하지 않는다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  하지만 나는 감염자가 우르수스에 반드시 있어야 할 힘이라고 생각한다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  모두가 우르수스의 영광을 상징해야 한다, 우르수스에 반기를 든 감염자는 멸망되어야 마땅해. 우르수스를 위해 싸우는 걸 영광으로 여겨야 할 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탈룰라의 귀로 지금까지 들어본 적 없는 요란한 속삭임이 들려왔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  너희의 이야기에 반대하지 않는다고 해서 너희에게 동조한다고 생각한다면, 그건 오만이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그런 권력을 이미 누리고 있다고 여기는 건가? 제멋대로 구는 걸 더 나은 시대를 위한 봉사라고 여기는 건가? 대체 뭘 믿고 영광을 운운하는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  웬디고여, 소수를 위한 전쟁을 다수가 응원할 거라고 생각하시는 근거는 뭡니까? 감염자를 위해 싸우는 당신들의 무엇이 정의라는 겁니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  현명한 답변을 들려주시리라 믿습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  ……정의와 사람 수가 무슨 상관이지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  근위병, 한 가지만 묻겠다. 당시 폐하를 섬기던 자가 얼마였지? 많았나, 적었나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  ……후우우우……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  폐하의 죽음이 너희들과 관련 있는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  만약 제가, 저희와는 무관하다고 대답한다면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  아무래도 우리 사이에는 건널 수 없는 강이 있는 것 같군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  어쨌든 내가 모시던 폐하는 돌아가셨다. 우르수스마저 그의 손에 떨어진 이상, 지금 내가 따를 것은 하나뿐이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  ……이 여자의 이념이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">패트리어트가 탈룰라를 부축하여 일으켰다. 그 순간만큼은 마치, 탈룰라가 그의 가족인 것처럼…… 아니, 그가 그녀를 잃게 되는 그날까지 계속 그의 가족이 될 것만 같이 느껴졌다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  스으으으……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  왜 하필 저 여자입니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  누구보다도 잘 알고 있기 때문이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  네 말대로 탄탄대로가 펼쳐져 있을지도 모르지만 난 감염자를 선택했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  군인은 국가의 통치가 아니라 국가와 신념을 위해 싸운다. 그래서 나는 지금의 제국을 무너뜨리고 정의라는 이름의 전쟁을 일으키려 하는 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  저희 역시 정의를 추구한다는 점에서, 감염자와 연대하고자 하는 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  대체 왜 저희를 거부하시는 겁니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  지금의 '리유니온'이 단결과 혁신보다 옳다고 여기시는 겁니까? 더 효율적이라서? 아니면 우르수스 시민에 대한 피해가 적기 때문입니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  아니. 전쟁이 이미 시작된 이상 그 끝을 보고 싶을 뿐이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  내가 모셨던 인자하신 폐하조차 감염자를 인정하진 않으셨지. 비슷한 약속 같은 건 내겐 거짓말로밖에 들리지 않거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  너희가 감염자를 하나로 끌어안을 수 있다면 전쟁은 일어나지 않을 것이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  저흰 당신이 그 중심에 서 주기를 바라는 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그들을 정말 끌어안을 생각이라면 나 같은 건 애당초 필요하지도 않을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  이제 됐다, 근위병들이여.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  네가 말한 길을 걸어온 사람으로서 '더 나은 선택' 같은 건 믿지 않는다. 내다볼 줄 안다고 하는 자들 역시 운명의 장난에 아직 놀아나지 않은 것뿐이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  너희들도 언젠가는 깨닫게 될 것이다. 세팅선 협곡에서 전사한 이십 여 명의 근위병처럼 북툰드라에서 이민족의 손에 죽임을 당하는 게 동료들의 손에 죽는 것보다 낫다는 걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  근위병, 나는 제국의 배신자다. 우리 사이에 화해의 가능성은 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  선언은 그저 선언일 뿐입니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  웬디고께선 그렇게 생각하실지 모르겠지만 그 뒤에 있는 자들은 어떨까요? 탈룰라를 믿을까요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  저들이 강한 힘을 가진 우상이 아니라 당신의 힘과 정직함을 숭배한다는 걸 어떻게 증명하실 생각인가요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  저들을 지켜줄 수 있는 강하지만 사악한 우상과, 누구든 유린할 수 있는 숭고한 우상 중에서 누가 더 나을까요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  내가 존경했던 사람을 전자에 비유한 것이 아니길 바란다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  현실이란 북서 툰드라의 눈보라보다 더 차갑죠, 웬디고. 힘을 잃어버리면…… 당신들은 유린당하게 될 겁니다. 게다가 그 첫 상대가 당신들의 적은 결코 아닐 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그들은 카셰이를 모를지도 모르지만, 공작과 그의 딸이 차기 공작이 될 거라는 건 잘 알고 있습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  당신 곁에 있는 상대는 당신이 알고 있는 것과는 다릅니다. 당신에게 맞설 수 있는 힘과 지혜를 갖추고 있죠. 어쩌면 당신보다 더 교활할지도 모릅니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  지금 이 여자를 칭찬하고 있는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  아, 아닙니다! 웬디고…… 우르수스인이 된 시간이 길지 않아서 잘 모르시나 본데, 전 카셰이에 대해 이야기하는 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  잘못된 지식을 물려받았다고 해서 그 역시 잘못됐다고 단정할 수는 없다. 아이가 설원에서 보여준 행적은 아이가 늙은 뱀과 다르다는 것을 증명하고 있지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  스으으으…… 후우우우……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  ……이미 들어서 알곤 있었지만 젊은이들을 아끼시는군요. 아낀다는 것보다는 좀 더 진지한 감정으로.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  진정으로 존경할 만한 사람이라면, 그들의 젊음에서 노쇠함과 죽음을 목격할 때까지 계속 존경할 것이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  가거라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  불드록카스티……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  떠나라, 당장.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  우리 전사를 다치게 한 죄는 잠시 추궁하지 않겠다, 지금 너희를 죽이면 근위병들이 네놈들의 시신을 치울 때까지 기다려야 하니. 어느 한 쪽이 죽을 때까지 싸우는 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  ……파멸하는 쪽이 우리가 되더라도 말이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  ……후우, 웬디고…… 더는 말하기 곤란하군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  우리의 경고는 말로만 끝나지 않을 겁니다, 불드록카스티.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  이제 우리도 당신들을 위해 애도하는 수밖에 없겠군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  적이 되었을 때, 너희를 대신 애도해 주마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그런 날은 오지 않을 겁니다, 웬디고. 절대……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그만 가보겠습니다, '패트리어트'. 오늘 결과는 무척 유감스럽군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그리고 탈룰라…… 달라진 널 기대하고 있으마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  저들을 이끌기에 너만한 인물이 없지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  아빠……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  옐레나!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  하아, 하아…… 우리가…… 녀석을 물리쳤어…… 눈의 악마 소대와 같이…… 하아……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  우리가 한 놈을 물리쳤어……! 그런데, 저 녀석은…… 스스로 물러선 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  모두 합쳐…… 다섯 명뿐이야? 나 혼자서는…… 소대를 보호하기조차……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  잘했다, 내 딸. 다음에는 더 잘할 수 있을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  ……당연하지!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  ……무슨 일이 있었던 거야? 왜 모두들……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  탈룰라? 방패병 오빠들은…… 어떻게 된 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……대위님…… 저들이 한 이야기는……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  역사 속에서 허무맹랑한 발자취를 구하는 것, 미래와 역사를 동일시하고 신분이 미래의 모든 것을 결정할 거라는 생각 모두 자만이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  탈룰라에 대해선 내가 장담한다. 모두가 그녀를 받아들일 때까지는 비밀을 지켜주길 바란다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  탈룰라가 어떤 사람인지 저희는 잘 알고 있습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  하지만 저들이 말한 게…… 정말입니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  너희들……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  너희들 무슨 생각하는 거야? 너희들이 그랬잖아, 신분으로 그 사람을 결정하는 건……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  맞아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  탈룰라……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  난 한때 귀족의 손에 길러진 '후계자'였다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  대답은 된 것 같군. 질문 있나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  리더여.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  패트리어트, 저를 그렇게 부르지 말라고 말씀드렸잖아요, 그만 돌아가죠…… 파우스트와 석궁병이 아직 훈련 중인데, 참가하실 거죠?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  네가 날 실망시키지 않는 이상, 끝까지 네 편이 되어 주마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  탈룰라…… 아버지는 널 인정하고 계셔.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  네가 똑같은 일을 겪도록 하지 않을 거야, 옐레나.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  쳇, 넌……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  사탕 좀 줘봐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  자. 설마 네가 이걸 달라고 할 줄이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  훗. 돌아가지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  전사들, 모두 철수한다. 혹시 더 알고 싶은 게 있다면, 내가 모든 걸……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  전사들……?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탈룰라……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……무슨 속셈이지?
 </t>
   </si>
 </sst>
@@ -1825,1498 +3283,2614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D22" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>388</v>
+      </c>
+      <c r="D24" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" t="s">
+        <v>389</v>
+      </c>
+      <c r="D25" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" t="s">
+        <v>391</v>
+      </c>
+      <c r="D27" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" t="s">
+        <v>392</v>
+      </c>
+      <c r="D28" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D29" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D30" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" t="s">
+        <v>398</v>
+      </c>
+      <c r="D34" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" t="s">
+        <v>399</v>
+      </c>
+      <c r="D35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" t="s">
+        <v>400</v>
+      </c>
+      <c r="D36" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" t="s">
+        <v>401</v>
+      </c>
+      <c r="D37" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" t="s">
+        <v>402</v>
+      </c>
+      <c r="D38" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" t="s">
+        <v>403</v>
+      </c>
+      <c r="D39" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" t="s">
+        <v>404</v>
+      </c>
+      <c r="D40" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" t="s">
+        <v>405</v>
+      </c>
+      <c r="D41" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" t="s">
+        <v>406</v>
+      </c>
+      <c r="D42" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" t="s">
+        <v>407</v>
+      </c>
+      <c r="D43" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" t="s">
+        <v>408</v>
+      </c>
+      <c r="D44" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" t="s">
+        <v>409</v>
+      </c>
+      <c r="D45" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>410</v>
+      </c>
+      <c r="D46" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" t="s">
+        <v>411</v>
+      </c>
+      <c r="D47" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" t="s">
+        <v>381</v>
+      </c>
+      <c r="D48" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" t="s">
+        <v>412</v>
+      </c>
+      <c r="D49" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" t="s">
+        <v>413</v>
+      </c>
+      <c r="D50" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" t="s">
+        <v>414</v>
+      </c>
+      <c r="D51" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" t="s">
+        <v>415</v>
+      </c>
+      <c r="D52" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" t="s">
+        <v>416</v>
+      </c>
+      <c r="D53" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
+      <c r="D54" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" t="s">
+        <v>418</v>
+      </c>
+      <c r="D55" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" t="s">
+        <v>419</v>
+      </c>
+      <c r="D56" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" t="s">
+        <v>420</v>
+      </c>
+      <c r="D57" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" t="s">
+        <v>421</v>
+      </c>
+      <c r="D58" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" t="s">
+        <v>422</v>
+      </c>
+      <c r="D59" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" t="s">
+        <v>423</v>
+      </c>
+      <c r="D60" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" t="s">
+        <v>424</v>
+      </c>
+      <c r="D61" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" t="s">
+        <v>425</v>
+      </c>
+      <c r="D62" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" t="s">
+        <v>426</v>
+      </c>
+      <c r="D63" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" t="s">
+        <v>427</v>
+      </c>
+      <c r="D64" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" t="s">
+        <v>428</v>
+      </c>
+      <c r="D65" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" t="s">
+        <v>429</v>
+      </c>
+      <c r="D66" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" t="s">
+        <v>430</v>
+      </c>
+      <c r="D67" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" t="s">
+        <v>431</v>
+      </c>
+      <c r="D68" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" t="s">
+        <v>432</v>
+      </c>
+      <c r="D69" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D70" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" t="s">
+        <v>434</v>
+      </c>
+      <c r="D71" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" t="s">
+        <v>435</v>
+      </c>
+      <c r="D72" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" t="s">
+        <v>436</v>
+      </c>
+      <c r="D73" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" t="s">
+        <v>437</v>
+      </c>
+      <c r="D74" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" t="s">
+        <v>438</v>
+      </c>
+      <c r="D75" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" t="s">
+        <v>439</v>
+      </c>
+      <c r="D76" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" t="s">
+        <v>381</v>
+      </c>
+      <c r="D77" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" t="s">
+        <v>440</v>
+      </c>
+      <c r="D78" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>260</v>
+      </c>
+      <c r="C79" t="s">
+        <v>441</v>
+      </c>
+      <c r="D79" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" t="s">
+        <v>442</v>
+      </c>
+      <c r="D80" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>443</v>
+      </c>
+      <c r="D81" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>263</v>
+      </c>
+      <c r="C82" t="s">
+        <v>444</v>
+      </c>
+      <c r="D82" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" t="s">
+        <v>445</v>
+      </c>
+      <c r="D83" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>265</v>
+      </c>
+      <c r="C84" t="s">
+        <v>446</v>
+      </c>
+      <c r="D84" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" t="s">
+        <v>447</v>
+      </c>
+      <c r="D85" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" t="s">
+        <v>448</v>
+      </c>
+      <c r="D86" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" t="s">
+        <v>449</v>
+      </c>
+      <c r="D87" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" t="s">
+        <v>450</v>
+      </c>
+      <c r="D88" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" t="s">
+        <v>451</v>
+      </c>
+      <c r="D89" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" t="s">
+        <v>452</v>
+      </c>
+      <c r="D90" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" t="s">
+        <v>453</v>
+      </c>
+      <c r="D91" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" t="s">
+        <v>454</v>
+      </c>
+      <c r="D92" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" t="s">
+        <v>455</v>
+      </c>
+      <c r="D93" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" t="s">
+        <v>456</v>
+      </c>
+      <c r="D94" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" t="s">
+        <v>457</v>
+      </c>
+      <c r="D95" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" t="s">
+        <v>458</v>
+      </c>
+      <c r="D96" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" t="s">
+        <v>459</v>
+      </c>
+      <c r="D97" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>279</v>
+      </c>
+      <c r="C98" t="s">
+        <v>460</v>
+      </c>
+      <c r="D98" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" t="s">
+        <v>461</v>
+      </c>
+      <c r="D99" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" t="s">
+        <v>462</v>
+      </c>
+      <c r="D100" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>281</v>
+      </c>
+      <c r="C101" t="s">
+        <v>463</v>
+      </c>
+      <c r="D101" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" t="s">
+        <v>464</v>
+      </c>
+      <c r="D102" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>283</v>
+      </c>
+      <c r="C103" t="s">
+        <v>465</v>
+      </c>
+      <c r="D103" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>284</v>
+      </c>
+      <c r="C104" t="s">
+        <v>466</v>
+      </c>
+      <c r="D104" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>285</v>
+      </c>
+      <c r="C105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D105" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>286</v>
+      </c>
+      <c r="C106" t="s">
+        <v>468</v>
+      </c>
+      <c r="D106" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" t="s">
+        <v>469</v>
+      </c>
+      <c r="D107" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>288</v>
+      </c>
+      <c r="C108" t="s">
+        <v>470</v>
+      </c>
+      <c r="D108" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" t="s">
+        <v>471</v>
+      </c>
+      <c r="D109" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>290</v>
+      </c>
+      <c r="C110" t="s">
+        <v>472</v>
+      </c>
+      <c r="D110" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>291</v>
+      </c>
+      <c r="C111" t="s">
+        <v>473</v>
+      </c>
+      <c r="D111" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>292</v>
+      </c>
+      <c r="C112" t="s">
+        <v>474</v>
+      </c>
+      <c r="D112" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>293</v>
+      </c>
+      <c r="C113" t="s">
+        <v>475</v>
+      </c>
+      <c r="D113" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>294</v>
+      </c>
+      <c r="C114" t="s">
+        <v>476</v>
+      </c>
+      <c r="D114" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" t="s">
+        <v>477</v>
+      </c>
+      <c r="D115" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>296</v>
+      </c>
+      <c r="C116" t="s">
+        <v>478</v>
+      </c>
+      <c r="D116" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" t="s">
+        <v>479</v>
+      </c>
+      <c r="D117" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>298</v>
+      </c>
+      <c r="C118" t="s">
+        <v>480</v>
+      </c>
+      <c r="D118" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>299</v>
+      </c>
+      <c r="C119" t="s">
+        <v>481</v>
+      </c>
+      <c r="D119" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" t="s">
+        <v>482</v>
+      </c>
+      <c r="D120" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>301</v>
+      </c>
+      <c r="C121" t="s">
+        <v>483</v>
+      </c>
+      <c r="D121" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>302</v>
+      </c>
+      <c r="C122" t="s">
+        <v>484</v>
+      </c>
+      <c r="D122" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>303</v>
+      </c>
+      <c r="C123" t="s">
+        <v>485</v>
+      </c>
+      <c r="D123" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>304</v>
+      </c>
+      <c r="C124" t="s">
+        <v>486</v>
+      </c>
+      <c r="D124" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>305</v>
+      </c>
+      <c r="C125" t="s">
+        <v>487</v>
+      </c>
+      <c r="D125" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>306</v>
+      </c>
+      <c r="C126" t="s">
+        <v>488</v>
+      </c>
+      <c r="D126" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>307</v>
+      </c>
+      <c r="C127" t="s">
+        <v>489</v>
+      </c>
+      <c r="D127" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>308</v>
+      </c>
+      <c r="C128" t="s">
+        <v>490</v>
+      </c>
+      <c r="D128" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>309</v>
+      </c>
+      <c r="C129" t="s">
+        <v>491</v>
+      </c>
+      <c r="D129" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>310</v>
+      </c>
+      <c r="C130" t="s">
+        <v>492</v>
+      </c>
+      <c r="D130" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>311</v>
+      </c>
+      <c r="C131" t="s">
+        <v>493</v>
+      </c>
+      <c r="D131" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>312</v>
+      </c>
+      <c r="C132" t="s">
+        <v>494</v>
+      </c>
+      <c r="D132" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>313</v>
+      </c>
+      <c r="C133" t="s">
+        <v>495</v>
+      </c>
+      <c r="D133" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>314</v>
+      </c>
+      <c r="C134" t="s">
+        <v>496</v>
+      </c>
+      <c r="D134" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>315</v>
+      </c>
+      <c r="C135" t="s">
+        <v>497</v>
+      </c>
+      <c r="D135" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" t="s">
+        <v>498</v>
+      </c>
+      <c r="D136" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" t="s">
+        <v>499</v>
+      </c>
+      <c r="D137" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>318</v>
+      </c>
+      <c r="C138" t="s">
+        <v>500</v>
+      </c>
+      <c r="D138" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>319</v>
+      </c>
+      <c r="C139" t="s">
+        <v>501</v>
+      </c>
+      <c r="D139" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>320</v>
+      </c>
+      <c r="C140" t="s">
+        <v>502</v>
+      </c>
+      <c r="D140" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>321</v>
+      </c>
+      <c r="C141" t="s">
+        <v>503</v>
+      </c>
+      <c r="D141" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>322</v>
+      </c>
+      <c r="C142" t="s">
+        <v>504</v>
+      </c>
+      <c r="D142" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>323</v>
+      </c>
+      <c r="C143" t="s">
+        <v>505</v>
+      </c>
+      <c r="D143" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>324</v>
+      </c>
+      <c r="C144" t="s">
+        <v>506</v>
+      </c>
+      <c r="D144" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" t="s">
+        <v>507</v>
+      </c>
+      <c r="D145" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>326</v>
+      </c>
+      <c r="C146" t="s">
+        <v>508</v>
+      </c>
+      <c r="D146" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>327</v>
+      </c>
+      <c r="C147" t="s">
+        <v>509</v>
+      </c>
+      <c r="D147" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>328</v>
+      </c>
+      <c r="C148" t="s">
+        <v>510</v>
+      </c>
+      <c r="D148" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>329</v>
+      </c>
+      <c r="C149" t="s">
+        <v>511</v>
+      </c>
+      <c r="D149" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>330</v>
+      </c>
+      <c r="C150" t="s">
+        <v>512</v>
+      </c>
+      <c r="D150" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>331</v>
+      </c>
+      <c r="C151" t="s">
+        <v>513</v>
+      </c>
+      <c r="D151" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>332</v>
+      </c>
+      <c r="C152" t="s">
+        <v>514</v>
+      </c>
+      <c r="D152" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" t="s">
+        <v>515</v>
+      </c>
+      <c r="D153" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>334</v>
+      </c>
+      <c r="C154" t="s">
+        <v>516</v>
+      </c>
+      <c r="D154" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>335</v>
+      </c>
+      <c r="C155" t="s">
+        <v>517</v>
+      </c>
+      <c r="D155" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>336</v>
+      </c>
+      <c r="C156" t="s">
+        <v>518</v>
+      </c>
+      <c r="D156" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" t="s">
+        <v>519</v>
+      </c>
+      <c r="D157" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>338</v>
+      </c>
+      <c r="C158" t="s">
+        <v>520</v>
+      </c>
+      <c r="D158" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>339</v>
+      </c>
+      <c r="C159" t="s">
+        <v>521</v>
+      </c>
+      <c r="D159" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>340</v>
+      </c>
+      <c r="C160" t="s">
+        <v>522</v>
+      </c>
+      <c r="D160" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>341</v>
+      </c>
+      <c r="C161" t="s">
+        <v>523</v>
+      </c>
+      <c r="D161" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>342</v>
+      </c>
+      <c r="C162" t="s">
+        <v>524</v>
+      </c>
+      <c r="D162" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>343</v>
+      </c>
+      <c r="C163" t="s">
+        <v>525</v>
+      </c>
+      <c r="D163" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>344</v>
+      </c>
+      <c r="C164" t="s">
+        <v>526</v>
+      </c>
+      <c r="D164" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>345</v>
+      </c>
+      <c r="C165" t="s">
+        <v>527</v>
+      </c>
+      <c r="D165" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>346</v>
+      </c>
+      <c r="C166" t="s">
+        <v>528</v>
+      </c>
+      <c r="D166" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>347</v>
+      </c>
+      <c r="C167" t="s">
+        <v>529</v>
+      </c>
+      <c r="D167" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168" t="s">
+        <v>342</v>
+      </c>
+      <c r="C168" t="s">
+        <v>524</v>
+      </c>
+      <c r="D168" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>348</v>
+      </c>
+      <c r="C169" t="s">
+        <v>530</v>
+      </c>
+      <c r="D169" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>349</v>
+      </c>
+      <c r="C170" t="s">
+        <v>531</v>
+      </c>
+      <c r="D170" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" t="s">
+        <v>532</v>
+      </c>
+      <c r="D171" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>351</v>
+      </c>
+      <c r="C172" t="s">
+        <v>533</v>
+      </c>
+      <c r="D172" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>352</v>
+      </c>
+      <c r="C173" t="s">
+        <v>534</v>
+      </c>
+      <c r="D173" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>353</v>
+      </c>
+      <c r="C174" t="s">
+        <v>535</v>
+      </c>
+      <c r="D174" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175" t="s">
+        <v>536</v>
+      </c>
+      <c r="D175" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>355</v>
+      </c>
+      <c r="C176" t="s">
+        <v>537</v>
+      </c>
+      <c r="D176" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" t="s">
+        <v>538</v>
+      </c>
+      <c r="D177" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" t="s">
+        <v>539</v>
+      </c>
+      <c r="D178" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>358</v>
+      </c>
+      <c r="C179" t="s">
+        <v>540</v>
+      </c>
+      <c r="D179" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>359</v>
+      </c>
+      <c r="C180" t="s">
+        <v>541</v>
+      </c>
+      <c r="D180" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>360</v>
+      </c>
+      <c r="C181" t="s">
+        <v>542</v>
+      </c>
+      <c r="D181" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>361</v>
+      </c>
+      <c r="C182" t="s">
+        <v>543</v>
+      </c>
+      <c r="D182" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183" t="s">
+        <v>544</v>
+      </c>
+      <c r="D183" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>363</v>
+      </c>
+      <c r="C184" t="s">
+        <v>545</v>
+      </c>
+      <c r="D184" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B185" t="s">
+        <v>364</v>
+      </c>
+      <c r="C185" t="s">
+        <v>546</v>
+      </c>
+      <c r="D185" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>95</v>
-      </c>
-      <c r="B100" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>106</v>
-      </c>
-      <c r="B109" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>108</v>
-      </c>
-      <c r="B111" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>109</v>
-      </c>
-      <c r="B112" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>110</v>
-      </c>
-      <c r="B113" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>111</v>
-      </c>
-      <c r="B114" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>112</v>
-      </c>
-      <c r="B115" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>113</v>
-      </c>
-      <c r="B116" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>114</v>
-      </c>
-      <c r="B117" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>115</v>
-      </c>
-      <c r="B118" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>119</v>
-      </c>
-      <c r="B122" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>120</v>
-      </c>
-      <c r="B123" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>121</v>
-      </c>
-      <c r="B124" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>122</v>
-      </c>
-      <c r="B125" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>123</v>
-      </c>
-      <c r="B126" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>124</v>
-      </c>
-      <c r="B127" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>127</v>
-      </c>
-      <c r="B130" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B131" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>134</v>
-      </c>
-      <c r="B137" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>135</v>
-      </c>
-      <c r="B138" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>140</v>
-      </c>
-      <c r="B143" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>142</v>
-      </c>
-      <c r="B145" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>146</v>
-      </c>
-      <c r="B149" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>147</v>
-      </c>
-      <c r="B150" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>148</v>
-      </c>
-      <c r="B151" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>149</v>
-      </c>
-      <c r="B152" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>150</v>
-      </c>
-      <c r="B153" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>151</v>
-      </c>
-      <c r="B154" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>152</v>
-      </c>
-      <c r="B155" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>153</v>
-      </c>
-      <c r="B156" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>154</v>
-      </c>
-      <c r="B157" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>155</v>
-      </c>
-      <c r="B158" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>156</v>
-      </c>
-      <c r="B159" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>157</v>
-      </c>
-      <c r="B160" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>158</v>
-      </c>
-      <c r="B161" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>159</v>
-      </c>
-      <c r="B162" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>160</v>
-      </c>
-      <c r="B163" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>161</v>
-      </c>
-      <c r="B164" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>162</v>
-      </c>
-      <c r="B165" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>163</v>
-      </c>
-      <c r="B166" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>164</v>
-      </c>
-      <c r="B167" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>159</v>
-      </c>
-      <c r="B168" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>165</v>
-      </c>
-      <c r="B169" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>166</v>
-      </c>
-      <c r="B170" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>167</v>
-      </c>
-      <c r="B171" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>168</v>
-      </c>
-      <c r="B172" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>169</v>
-      </c>
-      <c r="B173" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>170</v>
-      </c>
-      <c r="B174" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>171</v>
-      </c>
-      <c r="B175" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>172</v>
-      </c>
-      <c r="B176" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>173</v>
-      </c>
-      <c r="B177" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>174</v>
-      </c>
-      <c r="B178" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>175</v>
-      </c>
-      <c r="B179" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>176</v>
-      </c>
-      <c r="B180" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>177</v>
-      </c>
-      <c r="B181" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>178</v>
-      </c>
-      <c r="B182" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>179</v>
-      </c>
-      <c r="B183" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>180</v>
-      </c>
-      <c r="B184" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>181</v>
-      </c>
-      <c r="B185" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>182</v>
-      </c>
       <c r="B186" t="s">
-        <v>363</v>
+        <v>365</v>
+      </c>
+      <c r="C186" t="s">
+        <v>547</v>
+      </c>
+      <c r="D186" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
